--- a/web/toParse/2018-699.xlsx
+++ b/web/toParse/2018-699.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$194</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -60,12 +57,6 @@
     <t>13.08.2013 147743</t>
   </si>
   <si>
-    <t>Жекамухова Диана Мухамедовна</t>
-  </si>
-  <si>
-    <t>13.08.2013 147631</t>
-  </si>
-  <si>
     <t>Расуева Малика Решитовна</t>
   </si>
   <si>
@@ -120,12 +111,6 @@
     <t>01.10.2013 36331</t>
   </si>
   <si>
-    <t>Олимова Лиана Халиловна</t>
-  </si>
-  <si>
-    <t>07.12.2012 33752946</t>
-  </si>
-  <si>
     <t>Добренький Дмитрий Сергеевич</t>
   </si>
   <si>
@@ -156,54 +141,6 @@
     <t>12.09.2013 376568</t>
   </si>
   <si>
-    <t>Прокушев Денис Сергеевич</t>
-  </si>
-  <si>
-    <t>20.08.2012 94033</t>
-  </si>
-  <si>
-    <t>Никишин Виталий Сергеевич</t>
-  </si>
-  <si>
-    <t>22.03.2012 692199</t>
-  </si>
-  <si>
-    <t>Николаева Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>27.10.2011 541185</t>
-  </si>
-  <si>
-    <t>Окулов Александр Николаевич</t>
-  </si>
-  <si>
-    <t>06.09.2010 284879</t>
-  </si>
-  <si>
-    <t>Соломин Павел Олегович</t>
-  </si>
-  <si>
-    <t>15.03.2012 683266</t>
-  </si>
-  <si>
-    <t>Дзыгарь Диана Александровна</t>
-  </si>
-  <si>
-    <t>29.10.2013 139019-НКЛ</t>
-  </si>
-  <si>
-    <t>Сыса Татьяна Игоревна</t>
-  </si>
-  <si>
-    <t>24.08.2010 4340/102488</t>
-  </si>
-  <si>
-    <t>ШЕНТЕРОВА АЛЕНА ВАЛЕРЬЕВНА</t>
-  </si>
-  <si>
-    <t>21.10.2013 73444 НКЛ</t>
-  </si>
-  <si>
     <t>Путинцева Алена Валерьевна</t>
   </si>
   <si>
@@ -384,318 +321,6 @@
     <t>24.11.2011 564658</t>
   </si>
   <si>
-    <t>Рогинский Кирилл Николаевич</t>
-  </si>
-  <si>
-    <t>23.08.2011 492596</t>
-  </si>
-  <si>
-    <t>Рогожкин Роман Алексеевич</t>
-  </si>
-  <si>
-    <t>17.12.2013 1376718</t>
-  </si>
-  <si>
-    <t>Полетаева Ольга Леонидовна</t>
-  </si>
-  <si>
-    <t>25.04.2011 9055/01795/11/00441</t>
-  </si>
-  <si>
-    <t>ГОНЧАРОВА ДАРЬЯ АНАТОЛЬЕВНА</t>
-  </si>
-  <si>
-    <t>12.01.2011 0007/159585</t>
-  </si>
-  <si>
-    <t>КОМЛЕВА МАРИЯ АЛЕКСЕЕВНА</t>
-  </si>
-  <si>
-    <t>01.02.2011 0368/93899</t>
-  </si>
-  <si>
-    <t>МЕДВЕДЕВА ДАРЬЯ ВЛАДИМИРОВНА</t>
-  </si>
-  <si>
-    <t>17.11.2011 0007/176675</t>
-  </si>
-  <si>
-    <t>Аль Рошд Виолетта Владимировна</t>
-  </si>
-  <si>
-    <t>30.09.2010 298104</t>
-  </si>
-  <si>
-    <t>Андросова Анастасия Владимировна</t>
-  </si>
-  <si>
-    <t>02.11.2010 314413</t>
-  </si>
-  <si>
-    <t>Волкова Мария Владимировна</t>
-  </si>
-  <si>
-    <t>18.10.2010 307069</t>
-  </si>
-  <si>
-    <t>Сефер Мария Дмитриевна</t>
-  </si>
-  <si>
-    <t>03.09.2010 284264</t>
-  </si>
-  <si>
-    <t>Дамаскина Елизавета Михайловна</t>
-  </si>
-  <si>
-    <t>30.10.2012 929074</t>
-  </si>
-  <si>
-    <t>Амелина Александра Юрьевна</t>
-  </si>
-  <si>
-    <t>27.12.2013 1391363</t>
-  </si>
-  <si>
-    <t>Красова Мария Сергеевна</t>
-  </si>
-  <si>
-    <t>28.01.2011 364860</t>
-  </si>
-  <si>
-    <t>Кротова Евгения Андреевна</t>
-  </si>
-  <si>
-    <t>29.08.2012 873479</t>
-  </si>
-  <si>
-    <t>Курбацкая Ульяна Викторовна</t>
-  </si>
-  <si>
-    <t>01.09.2011 499938</t>
-  </si>
-  <si>
-    <t>Кэмерон Дания Айдаровна</t>
-  </si>
-  <si>
-    <t>28.04.2011 417134</t>
-  </si>
-  <si>
-    <t>Майорова Екатерина Владимировна</t>
-  </si>
-  <si>
-    <t>31.10.2011 542449</t>
-  </si>
-  <si>
-    <t>Малиновский Виталий Александрович</t>
-  </si>
-  <si>
-    <t>24.10.2013 1305458</t>
-  </si>
-  <si>
-    <t>Мамаева Екатерина Валерьевна</t>
-  </si>
-  <si>
-    <t>15.10.2010 306009</t>
-  </si>
-  <si>
-    <t>Матвеев Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>25.09.2013 1267986</t>
-  </si>
-  <si>
-    <t>Мирзоева Сима Тамирлановна</t>
-  </si>
-  <si>
-    <t>20.02.2012 659796</t>
-  </si>
-  <si>
-    <t>Нарышкина Юлия Викторовна</t>
-  </si>
-  <si>
-    <t>18.10.2011 533599</t>
-  </si>
-  <si>
-    <t>Никитин Павел Андреевич</t>
-  </si>
-  <si>
-    <t>14.12.2010 334778</t>
-  </si>
-  <si>
-    <t>Никишин Павел Николаевич</t>
-  </si>
-  <si>
-    <t>15.11.2010 319531</t>
-  </si>
-  <si>
-    <t>Песков Андрей Александрович</t>
-  </si>
-  <si>
-    <t>03.04.2012 705260</t>
-  </si>
-  <si>
-    <t>Петрова Наталия Владимировна</t>
-  </si>
-  <si>
-    <t>10.02.2012 649831</t>
-  </si>
-  <si>
-    <t>Подчерняев Денис Валерьевич</t>
-  </si>
-  <si>
-    <t>22.08.2011 491823</t>
-  </si>
-  <si>
-    <t>Пожидаева Марина Александровна</t>
-  </si>
-  <si>
-    <t>30.03.2012 701662</t>
-  </si>
-  <si>
-    <t>Потапов Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>28.10.2013 1310990</t>
-  </si>
-  <si>
-    <t>Стукалова Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>18.03.2013 1042972</t>
-  </si>
-  <si>
-    <t>Рощина Екатерина Игоревна</t>
-  </si>
-  <si>
-    <t>03.11.2010 314659</t>
-  </si>
-  <si>
-    <t>Рыбина Мария Михайловна</t>
-  </si>
-  <si>
-    <t>15.11.2010 319110</t>
-  </si>
-  <si>
-    <t>Салчак Чингис Чаянович</t>
-  </si>
-  <si>
-    <t>19.09.2013 1260939</t>
-  </si>
-  <si>
-    <t>Самойленко Алена Владимировна</t>
-  </si>
-  <si>
-    <t>17.09.2010 291397</t>
-  </si>
-  <si>
-    <t>Сергеев Тимофей Михайлович</t>
-  </si>
-  <si>
-    <t>02.09.2010 278054</t>
-  </si>
-  <si>
-    <t>Сергеева Елизавета Сергеевна</t>
-  </si>
-  <si>
-    <t>31.08.2012 876394</t>
-  </si>
-  <si>
-    <t>Симонов Леонид Леонидович</t>
-  </si>
-  <si>
-    <t>25.05.2011 433425</t>
-  </si>
-  <si>
-    <t>Смирнов Илья Антонович</t>
-  </si>
-  <si>
-    <t>16.02.2011 374274</t>
-  </si>
-  <si>
-    <t>Сокаев Заурбек Борисович</t>
-  </si>
-  <si>
-    <t>13.12.2010 334514</t>
-  </si>
-  <si>
-    <t>Соколов Игорь Андреевич</t>
-  </si>
-  <si>
-    <t>17.02.2012 655980</t>
-  </si>
-  <si>
-    <t>Соловьев Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>30.04.2012 739657</t>
-  </si>
-  <si>
-    <t>Соломатин Иван Ильич</t>
-  </si>
-  <si>
-    <t>14.03.2012 676324</t>
-  </si>
-  <si>
-    <t>Сорокин Вячеслав Андреевич</t>
-  </si>
-  <si>
-    <t>23.11.2010 323272</t>
-  </si>
-  <si>
-    <t>Суровцева Дина Раулевна</t>
-  </si>
-  <si>
-    <t>31.10.2011 544110</t>
-  </si>
-  <si>
-    <t>Суюнова Эльвира Замировна</t>
-  </si>
-  <si>
-    <t>31.01.2011 366104</t>
-  </si>
-  <si>
-    <t>Тамбиева Фатима Нурбиевна</t>
-  </si>
-  <si>
-    <t>12.04.2012 716022</t>
-  </si>
-  <si>
-    <t>Тарасова Мария Сергеевна</t>
-  </si>
-  <si>
-    <t>17.02.2011 373588</t>
-  </si>
-  <si>
-    <t>Тоймбетов Даурен Ергалиевич</t>
-  </si>
-  <si>
-    <t>10.11.2011 551563</t>
-  </si>
-  <si>
-    <t>Фомочкина Алена Алексеевна</t>
-  </si>
-  <si>
-    <t>02.09.2011 500709</t>
-  </si>
-  <si>
-    <t>Хачатрян Арташ Аикович</t>
-  </si>
-  <si>
-    <t>13.09.2010 288211</t>
-  </si>
-  <si>
-    <t>Черногуз Вера Антоновна</t>
-  </si>
-  <si>
-    <t>07.10.2010 300206</t>
-  </si>
-  <si>
-    <t>Шмидт Александра Сергеевна</t>
-  </si>
-  <si>
-    <t>17.09.2012 891487</t>
-  </si>
-  <si>
     <t>Хинкиладзе Мария Мурмановна</t>
   </si>
   <si>
@@ -750,9 +375,6 @@
     <t>13.09.2013 1422298</t>
   </si>
   <si>
-    <t>02.11.2010 314550</t>
-  </si>
-  <si>
     <t>Савенков Андрей Андреевич</t>
   </si>
   <si>
@@ -1014,60 +636,12 @@
     <t>20.05.2011 430162</t>
   </si>
   <si>
-    <t>Кузьмина Дарья Игоревна</t>
-  </si>
-  <si>
-    <t>16.10.2013 055/9055/13/127339</t>
-  </si>
-  <si>
-    <t>Беликова Алина Николаевна</t>
-  </si>
-  <si>
-    <t>03.06.2013 055/9055/13/21152</t>
-  </si>
-  <si>
-    <t>Бологова Юлия Александровна</t>
-  </si>
-  <si>
-    <t>31.08.2010 1991/10/04177</t>
-  </si>
-  <si>
     <t>Быстров Андрей Сергеевич</t>
   </si>
   <si>
     <t>17.04.2013 9055/01823/13/00370</t>
   </si>
   <si>
-    <t>Гуменникова Анна Олеговна</t>
-  </si>
-  <si>
-    <t>25.10.2012 8628/01730/12/01340</t>
-  </si>
-  <si>
-    <t>Працук Александр Станиславович</t>
-  </si>
-  <si>
-    <t>13.11.2012 8628/86280/12/03014</t>
-  </si>
-  <si>
-    <t>Яровой Денис Дмитриевич</t>
-  </si>
-  <si>
-    <t>09.10.2013 055/9055/13/121409</t>
-  </si>
-  <si>
-    <t>Аверин Владимир Вадимович</t>
-  </si>
-  <si>
-    <t>04.04.2013 9055/01823/13/00308</t>
-  </si>
-  <si>
-    <t>Белькова Софья Сергеевна</t>
-  </si>
-  <si>
-    <t>23.08.2012 152661</t>
-  </si>
-  <si>
     <t>Захаров Константин Андреевич</t>
   </si>
   <si>
@@ -1168,30 +742,6 @@
   </si>
   <si>
     <t>08.04.2013 9055/06213/13/00104</t>
-  </si>
-  <si>
-    <t>Макарчук Ирина Андреевна</t>
-  </si>
-  <si>
-    <t>22.10.2013 055/9055/13/132526</t>
-  </si>
-  <si>
-    <t>Савельева Дарья Александровна</t>
-  </si>
-  <si>
-    <t>06.11.2012 9055/01823/12/01977</t>
-  </si>
-  <si>
-    <t>Козлова Дарья Сергеевна</t>
-  </si>
-  <si>
-    <t>30.12.2013 42870541</t>
-  </si>
-  <si>
-    <t>Сапанжа Алексей Николаевич</t>
-  </si>
-  <si>
-    <t>31.08.2010 2008/10/01838</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1236,12 +786,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1275,22 +831,22 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -1583,11 +1139,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,7 +1288,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -1752,7 +1308,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
@@ -1812,7 +1368,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
@@ -1832,7 +1388,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>28</v>
@@ -1852,7 +1408,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>220</v>
+        <v>2861</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
@@ -1872,7 +1428,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>3389</v>
+        <v>317</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>32</v>
@@ -1892,7 +1448,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>2861</v>
+        <v>194</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>34</v>
@@ -1912,7 +1468,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>36</v>
@@ -1932,7 +1488,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>778</v>
+        <v>325</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>38</v>
@@ -1952,7 +1508,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>40</v>
@@ -1972,7 +1528,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>42</v>
@@ -1992,7 +1548,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>44</v>
@@ -2012,7 +1568,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>46</v>
@@ -2032,7 +1588,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>48</v>
@@ -2052,7 +1608,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>50</v>
@@ -2072,7 +1628,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>52</v>
@@ -2092,7 +1648,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>54</v>
@@ -2112,7 +1668,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>56</v>
@@ -2132,7 +1688,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>58</v>
@@ -2152,7 +1708,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>60</v>
@@ -2172,7 +1728,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>62</v>
@@ -2192,7 +1748,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>64</v>
@@ -2212,7 +1768,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>66</v>
@@ -2232,7 +1788,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>68</v>
@@ -2252,7 +1808,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>70</v>
@@ -2272,7 +1828,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>72</v>
@@ -2292,7 +1848,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>74</v>
@@ -2312,7 +1868,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>76</v>
@@ -2332,7 +1888,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>78</v>
@@ -2352,7 +1908,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>80</v>
@@ -2372,7 +1928,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>82</v>
@@ -2392,7 +1948,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>84</v>
@@ -2412,7 +1968,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>86</v>
@@ -2432,7 +1988,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>88</v>
@@ -2452,7 +2008,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>90</v>
@@ -2472,7 +2028,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>92</v>
@@ -2492,7 +2048,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>94</v>
@@ -2512,7 +2068,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>96</v>
@@ -2532,7 +2088,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>98</v>
@@ -2552,7 +2108,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>219</v>
+        <v>689</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>100</v>
@@ -2572,7 +2128,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>219</v>
+        <v>717</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>102</v>
@@ -2592,7 +2148,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>104</v>
@@ -2612,7 +2168,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>106</v>
@@ -2632,7 +2188,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>108</v>
@@ -2652,7 +2208,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>110</v>
@@ -2672,7 +2228,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>112</v>
@@ -2692,7 +2248,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>106</v>
+        <v>3062</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>114</v>
@@ -2712,7 +2268,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>112</v>
+        <v>3062</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>116</v>
@@ -2732,7 +2288,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>112</v>
+        <v>3062</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>118</v>
@@ -2752,7 +2308,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>1411</v>
+        <v>3062</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>120</v>
@@ -2772,7 +2328,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>1411</v>
+        <v>3062</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>122</v>
@@ -2792,7 +2348,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>124</v>
@@ -2812,7 +2368,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>126</v>
@@ -2832,7 +2388,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>128</v>
@@ -2852,7 +2408,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>130</v>
@@ -2872,7 +2428,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>132</v>
@@ -2892,7 +2448,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>134</v>
@@ -2912,7 +2468,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>136</v>
@@ -2932,7 +2488,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>138</v>
@@ -2952,7 +2508,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>140</v>
@@ -2972,7 +2528,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>142</v>
@@ -2992,7 +2548,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>144</v>
@@ -3012,7 +2568,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>146</v>
@@ -3032,7 +2588,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>148</v>
@@ -3052,7 +2608,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>150</v>
@@ -3072,7 +2628,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>152</v>
@@ -3092,7 +2648,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>154</v>
@@ -3112,7 +2668,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>156</v>
@@ -3132,7 +2688,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>158</v>
@@ -3152,7 +2708,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>160</v>
@@ -3172,7 +2728,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>162</v>
@@ -3192,7 +2748,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>164</v>
@@ -3212,7 +2768,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>166</v>
@@ -3232,7 +2788,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>168</v>
@@ -3252,7 +2808,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>170</v>
@@ -3272,7 +2828,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>172</v>
@@ -3292,7 +2848,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>174</v>
@@ -3312,7 +2868,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>176</v>
@@ -3332,7 +2888,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>178</v>
@@ -3352,7 +2908,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>180</v>
@@ -3372,7 +2928,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>182</v>
@@ -3392,7 +2948,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>184</v>
@@ -3412,7 +2968,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>186</v>
@@ -3432,7 +2988,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>188</v>
@@ -3452,7 +3008,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>190</v>
@@ -3472,13 +3028,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D95" s="6">
         <v>3</v>
@@ -3492,13 +3048,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>711</v>
+        <v>3062</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
@@ -3512,13 +3068,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>711</v>
+        <v>154</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="D97" s="6">
         <v>3</v>
@@ -3532,13 +3088,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>711</v>
+        <v>154</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="D98" s="6">
         <v>3</v>
@@ -3552,13 +3108,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>711</v>
+        <v>154</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="D99" s="6">
         <v>3</v>
@@ -3572,13 +3128,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>711</v>
+        <v>938</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="D100" s="6">
         <v>3</v>
@@ -3592,13 +3148,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>711</v>
+        <v>938</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="D101" s="6">
         <v>3</v>
@@ -3612,13 +3168,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D102" s="6">
         <v>3</v>
@@ -3632,13 +3188,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D103" s="6">
         <v>3</v>
@@ -3652,13 +3208,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="D104" s="6">
         <v>3</v>
@@ -3672,13 +3228,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="D105" s="6">
         <v>3</v>
@@ -3692,13 +3248,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D106" s="6">
         <v>3</v>
@@ -3712,13 +3268,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="D107" s="6">
         <v>3</v>
@@ -3732,13 +3288,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>711</v>
+        <v>158</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="D108" s="6">
         <v>3</v>
@@ -3752,13 +3308,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>711</v>
+        <v>158</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="D109" s="6">
         <v>3</v>
@@ -3772,13 +3328,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>711</v>
+        <v>174</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="D110" s="6">
         <v>3</v>
@@ -3792,13 +3348,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>689</v>
+        <v>174</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="D111" s="6">
         <v>3</v>
@@ -3812,13 +3368,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>717</v>
+        <v>174</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D112" s="6">
         <v>3</v>
@@ -3832,13 +3388,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D113" s="6">
         <v>3</v>
@@ -3852,13 +3408,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D114" s="6">
         <v>3</v>
@@ -3872,13 +3428,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="D115" s="6">
         <v>3</v>
@@ -3892,13 +3448,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D116" s="6">
         <v>3</v>
@@ -3912,13 +3468,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="D117" s="6">
         <v>3</v>
@@ -3932,13 +3488,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>3062</v>
+        <v>708</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="D118" s="6">
         <v>3</v>
@@ -3952,14 +3508,14 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>3062</v>
+        <v>708</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="D119" s="6">
         <v>3</v>
       </c>
@@ -3970,1508 +3526,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D120" s="6">
-        <v>3</v>
-      </c>
-      <c r="E120" s="6">
-        <v>1</v>
-      </c>
-      <c r="F120" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121" s="6">
-        <v>3</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
-      <c r="F121" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" s="6">
-        <v>3</v>
-      </c>
-      <c r="E122" s="6">
-        <v>1</v>
-      </c>
-      <c r="F122" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123" s="6">
-        <v>3</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1</v>
-      </c>
-      <c r="F123" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" s="6">
-        <v>3</v>
-      </c>
-      <c r="E124" s="6">
-        <v>1</v>
-      </c>
-      <c r="F124" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" s="6">
-        <v>3</v>
-      </c>
-      <c r="E125" s="6">
-        <v>1</v>
-      </c>
-      <c r="F125" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" s="6">
-        <v>3</v>
-      </c>
-      <c r="E126" s="6">
-        <v>1</v>
-      </c>
-      <c r="F126" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="6">
-        <v>3</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1</v>
-      </c>
-      <c r="F127" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D128" s="6">
-        <v>3</v>
-      </c>
-      <c r="E128" s="6">
-        <v>1</v>
-      </c>
-      <c r="F128" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D129" s="6">
-        <v>3</v>
-      </c>
-      <c r="E129" s="6">
-        <v>1</v>
-      </c>
-      <c r="F129" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" s="6">
-        <v>3</v>
-      </c>
-      <c r="E130" s="6">
-        <v>1</v>
-      </c>
-      <c r="F130" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1</v>
-      </c>
-      <c r="F131" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132" s="6">
-        <v>3</v>
-      </c>
-      <c r="E132" s="6">
-        <v>1</v>
-      </c>
-      <c r="F132" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D133" s="6">
-        <v>3</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1</v>
-      </c>
-      <c r="F133" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134" s="6">
-        <v>3</v>
-      </c>
-      <c r="E134" s="6">
-        <v>1</v>
-      </c>
-      <c r="F134" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D136" s="6">
-        <v>3</v>
-      </c>
-      <c r="E136" s="6">
-        <v>1</v>
-      </c>
-      <c r="F136" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137" s="6">
-        <v>3</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D138" s="6">
-        <v>3</v>
-      </c>
-      <c r="E138" s="6">
-        <v>1</v>
-      </c>
-      <c r="F138" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139" s="6">
-        <v>3</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1</v>
-      </c>
-      <c r="F139" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140" s="6">
-        <v>3</v>
-      </c>
-      <c r="E140" s="6">
-        <v>1</v>
-      </c>
-      <c r="F140" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141" s="6">
-        <v>3</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1</v>
-      </c>
-      <c r="F141" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D142" s="6">
-        <v>3</v>
-      </c>
-      <c r="E142" s="6">
-        <v>1</v>
-      </c>
-      <c r="F142" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D143" s="6">
-        <v>3</v>
-      </c>
-      <c r="E143" s="6">
-        <v>1</v>
-      </c>
-      <c r="F143" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D144" s="6">
-        <v>3</v>
-      </c>
-      <c r="E144" s="6">
-        <v>1</v>
-      </c>
-      <c r="F144" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D145" s="6">
-        <v>3</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D146" s="6">
-        <v>3</v>
-      </c>
-      <c r="E146" s="6">
-        <v>1</v>
-      </c>
-      <c r="F146" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D147" s="6">
-        <v>3</v>
-      </c>
-      <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D148" s="6">
-        <v>3</v>
-      </c>
-      <c r="E148" s="6">
-        <v>1</v>
-      </c>
-      <c r="F148" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D149" s="6">
-        <v>3</v>
-      </c>
-      <c r="E149" s="6">
-        <v>1</v>
-      </c>
-      <c r="F149" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D150" s="6">
-        <v>3</v>
-      </c>
-      <c r="E150" s="6">
-        <v>1</v>
-      </c>
-      <c r="F150" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D151" s="6">
-        <v>3</v>
-      </c>
-      <c r="E151" s="6">
-        <v>1</v>
-      </c>
-      <c r="F151" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D152" s="6">
-        <v>3</v>
-      </c>
-      <c r="E152" s="6">
-        <v>1</v>
-      </c>
-      <c r="F152" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D153" s="6">
-        <v>3</v>
-      </c>
-      <c r="E153" s="6">
-        <v>1</v>
-      </c>
-      <c r="F153" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D154" s="6">
-        <v>3</v>
-      </c>
-      <c r="E154" s="6">
-        <v>1</v>
-      </c>
-      <c r="F154" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D155" s="6">
-        <v>3</v>
-      </c>
-      <c r="E155" s="6">
-        <v>1</v>
-      </c>
-      <c r="F155" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D156" s="6">
-        <v>3</v>
-      </c>
-      <c r="E156" s="6">
-        <v>1</v>
-      </c>
-      <c r="F156" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D157" s="6">
-        <v>3</v>
-      </c>
-      <c r="E157" s="6">
-        <v>1</v>
-      </c>
-      <c r="F157" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D158" s="6">
-        <v>3</v>
-      </c>
-      <c r="E158" s="6">
-        <v>1</v>
-      </c>
-      <c r="F158" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
-        <v>3062</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3</v>
-      </c>
-      <c r="E159" s="6">
-        <v>1</v>
-      </c>
-      <c r="F159" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
-        <v>154</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D160" s="6">
-        <v>3</v>
-      </c>
-      <c r="E160" s="6">
-        <v>1</v>
-      </c>
-      <c r="F160" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
-        <v>154</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D161" s="6">
-        <v>3</v>
-      </c>
-      <c r="E161" s="6">
-        <v>1</v>
-      </c>
-      <c r="F161" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
-        <v>154</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D162" s="6">
-        <v>3</v>
-      </c>
-      <c r="E162" s="6">
-        <v>1</v>
-      </c>
-      <c r="F162" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
-        <v>938</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D163" s="6">
-        <v>3</v>
-      </c>
-      <c r="E163" s="6">
-        <v>1</v>
-      </c>
-      <c r="F163" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
-        <v>938</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D164" s="6">
-        <v>3</v>
-      </c>
-      <c r="E164" s="6">
-        <v>1</v>
-      </c>
-      <c r="F164" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
-        <v>704</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D165" s="6">
-        <v>3</v>
-      </c>
-      <c r="E165" s="6">
-        <v>1</v>
-      </c>
-      <c r="F165" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
-        <v>704</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D166" s="6">
-        <v>3</v>
-      </c>
-      <c r="E166" s="6">
-        <v>1</v>
-      </c>
-      <c r="F166" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
-        <v>704</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D167" s="6">
-        <v>3</v>
-      </c>
-      <c r="E167" s="6">
-        <v>1</v>
-      </c>
-      <c r="F167" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
-        <v>704</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D168" s="6">
-        <v>3</v>
-      </c>
-      <c r="E168" s="6">
-        <v>1</v>
-      </c>
-      <c r="F168" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
-        <v>704</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D169" s="6">
-        <v>3</v>
-      </c>
-      <c r="E169" s="6">
-        <v>1</v>
-      </c>
-      <c r="F169" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
-        <v>704</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D170" s="6">
-        <v>3</v>
-      </c>
-      <c r="E170" s="6">
-        <v>1</v>
-      </c>
-      <c r="F170" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
-        <v>704</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D171" s="6">
-        <v>3</v>
-      </c>
-      <c r="E171" s="6">
-        <v>1</v>
-      </c>
-      <c r="F171" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
-        <v>704</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D172" s="6">
-        <v>3</v>
-      </c>
-      <c r="E172" s="6">
-        <v>1</v>
-      </c>
-      <c r="F172" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
-        <v>704</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D173" s="6">
-        <v>3</v>
-      </c>
-      <c r="E173" s="6">
-        <v>1</v>
-      </c>
-      <c r="F173" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
-        <v>682</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D174" s="6">
-        <v>3</v>
-      </c>
-      <c r="E174" s="6">
-        <v>1</v>
-      </c>
-      <c r="F174" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
-        <v>682</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D175" s="6">
-        <v>3</v>
-      </c>
-      <c r="E175" s="6">
-        <v>1</v>
-      </c>
-      <c r="F175" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
-        <v>682</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D176" s="6">
-        <v>3</v>
-      </c>
-      <c r="E176" s="6">
-        <v>1</v>
-      </c>
-      <c r="F176" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
-        <v>682</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D177" s="6">
-        <v>3</v>
-      </c>
-      <c r="E177" s="6">
-        <v>1</v>
-      </c>
-      <c r="F177" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
-        <v>682</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D178" s="6">
-        <v>3</v>
-      </c>
-      <c r="E178" s="6">
-        <v>1</v>
-      </c>
-      <c r="F178" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
-        <v>158</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D179" s="6">
-        <v>3</v>
-      </c>
-      <c r="E179" s="6">
-        <v>1</v>
-      </c>
-      <c r="F179" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
-        <v>158</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D180" s="6">
-        <v>3</v>
-      </c>
-      <c r="E180" s="6">
-        <v>1</v>
-      </c>
-      <c r="F180" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
-        <v>174</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D181" s="6">
-        <v>3</v>
-      </c>
-      <c r="E181" s="6">
-        <v>1</v>
-      </c>
-      <c r="F181" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
-        <v>174</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D182" s="6">
-        <v>3</v>
-      </c>
-      <c r="E182" s="6">
-        <v>1</v>
-      </c>
-      <c r="F182" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
-        <v>174</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D183" s="6">
-        <v>3</v>
-      </c>
-      <c r="E183" s="6">
-        <v>1</v>
-      </c>
-      <c r="F183" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
-        <v>174</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D184" s="6">
-        <v>3</v>
-      </c>
-      <c r="E184" s="6">
-        <v>1</v>
-      </c>
-      <c r="F184" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
-        <v>174</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D185" s="6">
-        <v>3</v>
-      </c>
-      <c r="E185" s="6">
-        <v>1</v>
-      </c>
-      <c r="F185" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
-        <v>174</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D186" s="6">
-        <v>3</v>
-      </c>
-      <c r="E186" s="6">
-        <v>1</v>
-      </c>
-      <c r="F186" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
-        <v>174</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D187" s="6">
-        <v>3</v>
-      </c>
-      <c r="E187" s="6">
-        <v>1</v>
-      </c>
-      <c r="F187" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
-        <v>174</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D188" s="6">
-        <v>3</v>
-      </c>
-      <c r="E188" s="6">
-        <v>1</v>
-      </c>
-      <c r="F188" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
-        <v>708</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D189" s="6">
-        <v>3</v>
-      </c>
-      <c r="E189" s="6">
-        <v>1</v>
-      </c>
-      <c r="F189" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
-        <v>708</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D190" s="6">
-        <v>3</v>
-      </c>
-      <c r="E190" s="6">
-        <v>1</v>
-      </c>
-      <c r="F190" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
-        <v>173</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D191" s="6">
-        <v>3</v>
-      </c>
-      <c r="E191" s="6">
-        <v>1</v>
-      </c>
-      <c r="F191" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
-        <v>173</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D192" s="6">
-        <v>3</v>
-      </c>
-      <c r="E192" s="6">
-        <v>1</v>
-      </c>
-      <c r="F192" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
-        <v>173</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D193" s="6">
-        <v>3</v>
-      </c>
-      <c r="E193" s="6">
-        <v>1</v>
-      </c>
-      <c r="F193" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
-        <v>3220</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D194" s="6">
-        <v>3</v>
-      </c>
-      <c r="E194" s="6">
-        <v>1</v>
-      </c>
-      <c r="F194" s="7">
-        <v>43435</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F194"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
